--- a/predictions/deaths/d4_train_short_predictions.xlsx
+++ b/predictions/deaths/d4_train_short_predictions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\predictions\deaths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\Praca dyplomowa\Excel\excel-prognozowanie\predictions\deaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="d4_train_short_transformations" sheetId="1" r:id="rId1"/>
@@ -12569,16 +12569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>582</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>581</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>597</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12599,16 +12599,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>598</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>612</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>610</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12933,7 +12933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+    <sheetView topLeftCell="A468" workbookViewId="0">
       <selection activeCell="G554" sqref="G554"/>
     </sheetView>
   </sheetViews>
@@ -19526,8 +19526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I611"/>
   <sheetViews>
-    <sheetView topLeftCell="A582" workbookViewId="0">
-      <selection activeCell="L594" sqref="L594"/>
+    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="H589" sqref="H589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
